--- a/OreList.xlsx
+++ b/OreList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuli1\OneDrive\ドキュメント\git\Fragment-s-Gregtech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/618091e897311ffb/ドキュメント/GitHub/fragment's-gregtech/fragments-Gregtech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADC087A1-C09A-4F53-BA29-76854276DF47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="6_{6ED14597-7D43-4AE6-A9A3-11A4B09C25B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{82E6E565-F7EC-4F4B-8BA5-320230B54A25}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{83E263F7-03C6-49A7-931F-FCD1D21CB9D9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3599" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3629" uniqueCount="463">
   <si>
     <t>OreName</t>
   </si>
@@ -1342,6 +1342,105 @@
   <si>
     <t>oreTalc</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gregtech:ore_powellite_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_precious_metal_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_rarest_metal_residue_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_pyrochlore_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_granitic_mineral_sand_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_cassiterite_sand_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_quartzite_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_pyrite_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_prasiolite_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_pyrolusite_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_redstone_0</t>
+  </si>
+  <si>
+    <t>gregtech:ore_basaltic_mineral_sand_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oreMineralSand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gregtech:ore_pyrope_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orePyrope</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orePowellite</t>
+  </si>
+  <si>
+    <t>orePyrochlore</t>
+  </si>
+  <si>
+    <t>oreQuartzite</t>
+  </si>
+  <si>
+    <t>orePyrite</t>
+  </si>
+  <si>
+    <t>orePrasiolite</t>
+  </si>
+  <si>
+    <t>orePyrolusite</t>
+  </si>
+  <si>
+    <t>oreRedstone</t>
+  </si>
+  <si>
+    <t>gregtech:ore_garnet_sand_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oreGarnetSand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>orePreciousMetal</t>
+  </si>
+  <si>
+    <t>oreCassiteriteSand</t>
+  </si>
+  <si>
+    <t>gregtech:ore_rhodocrosite_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oreRhodocrosite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oreRarestMetalResidue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oreGraniticMineralSand</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2317E2-D652-453F-BB6E-5139878605F5}">
   <dimension ref="A1:I32192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A614" workbookViewId="0">
-      <selection activeCell="A554" sqref="A554:XFD554"/>
+    <sheetView tabSelected="1" topLeftCell="A684" workbookViewId="0">
+      <selection activeCell="B684" sqref="B684:B698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15721,6 +15820,126 @@
         <v>2</v>
       </c>
     </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A684" t="s">
+        <v>445</v>
+      </c>
+      <c r="B684" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A685" t="s">
+        <v>447</v>
+      </c>
+      <c r="B685" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A686" t="s">
+        <v>456</v>
+      </c>
+      <c r="B686" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A687" t="s">
+        <v>460</v>
+      </c>
+      <c r="B687" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A688" t="s">
+        <v>448</v>
+      </c>
+      <c r="B688" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A689" t="s">
+        <v>457</v>
+      </c>
+      <c r="B689" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A690" t="s">
+        <v>461</v>
+      </c>
+      <c r="B690" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A691" t="s">
+        <v>449</v>
+      </c>
+      <c r="B691" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A692" t="s">
+        <v>462</v>
+      </c>
+      <c r="B692" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A693" t="s">
+        <v>458</v>
+      </c>
+      <c r="B693" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A694" t="s">
+        <v>450</v>
+      </c>
+      <c r="B694" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A695" t="s">
+        <v>451</v>
+      </c>
+      <c r="B695" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A696" t="s">
+        <v>452</v>
+      </c>
+      <c r="B696" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A697" t="s">
+        <v>453</v>
+      </c>
+      <c r="B697" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A698" t="s">
+        <v>454</v>
+      </c>
+      <c r="B698" t="s">
+        <v>443</v>
+      </c>
+    </row>
     <row r="23204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23204">
         <v>7</v>
